--- a/src/test/java/Guru99/TestData/testdatalogin.xlsx
+++ b/src/test/java/Guru99/TestData/testdatalogin.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patel/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patel/eclipse-workspace/Guru99WebApplication/src/test/java/Guru99/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16174A9-524B-3F4A-94A2-76D3D93EBC79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2AB339-77CF-F649-9650-320432C68EE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16660" xr2:uid="{FA28D8A8-B386-9246-85F5-A64298CF0CCB}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>mngr357211</t>
   </si>
@@ -64,12 +64,37 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>89217</t>
+  </si>
+  <si>
+    <t>VTehDK@gmail.com</t>
+  </si>
+  <si>
+    <t>388111</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>CustomerID</t>
+  </si>
+  <si>
+    <t>AccountNo</t>
+  </si>
+  <si>
+    <t>99019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -422,34 +447,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E31770-7160-3940-B8D5-EE96FBD2D078}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -457,7 +506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -465,7 +514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -473,7 +522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>

--- a/src/test/java/Guru99/TestData/testdatalogin.xlsx
+++ b/src/test/java/Guru99/TestData/testdatalogin.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patel/eclipse-workspace/Guru99WebApplication/src/test/java/Guru99/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2AB339-77CF-F649-9650-320432C68EE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C156B01C-6D5D-C349-9A24-7A264DC599E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16660" xr2:uid="{FA28D8A8-B386-9246-85F5-A64298CF0CCB}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -87,14 +87,13 @@
     <t>AccountNo</t>
   </si>
   <si>
-    <t>99019</t>
+    <t>99196</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -450,12 +449,12 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D6" sqref="D6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -485,18 +484,6 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -528,6 +515,18 @@
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
